--- a/DragPrediction/NL2VP DragX/1T/n/9/test.xlsx
+++ b/DragPrediction/NL2VP DragX/1T/n/9/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>9.8827949999999998E-3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>0.11125077033178514</v>
+        <v>0.13461343210146001</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E200)</f>
-        <v>10.560937536037111</v>
+        <v>12.778734418604893</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">A3*$E$1</f>
-        <v>0.55061610098858682</v>
+        <v>0.66624548219618995</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.11278084752296282</v>
+        <v>0.13646482550278499</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.54755350449407858</v>
+        <v>0.66253974043783503</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.11353706102764463</v>
+        <v>0.13737984384345001</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.54231335255150825</v>
+        <v>0.65619915658732497</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.11435537278884297</v>
+        <v>0.13837000107449998</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.53901704020664876</v>
+        <v>0.65221061865004504</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.11737989193600414</v>
+        <v>0.14202966924256499</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.54521684421411576</v>
+        <v>0.65971238149907996</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.11762490357601241</v>
+        <v>0.142326133326975</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.41328656220520665</v>
+        <v>0.50007674026829996</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.12101886773659092</v>
+        <v>0.14643282996127499</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.33563742555500825</v>
+        <v>0.40612128492155997</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.12537926306938016</v>
+        <v>0.15170890831394998</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1.6025442148450413E-2</v>
+        <v>1.9390784999624999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.10018084746230578</v>
+        <v>0.12121882542939</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.26169044925260332</v>
+        <v>0.31664544359565</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.1026064202268719</v>
+        <v>0.12415376847451499</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.27408189783596282</v>
+        <v>0.33163909638151501</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.10491603758597108</v>
+        <v>0.126948405479025</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0.29317909235759504</v>
+        <v>0.35474670175268996</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>0.11098279140290082</v>
+        <v>0.13428917759751</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,7 +806,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>0.30524742255004961</v>
+        <v>0.36934938128556</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -824,7 +824,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>0.11700146256349588</v>
+        <v>0.14157176970183</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>0.32537415111510748</v>
+        <v>0.39370272284927998</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,7 +860,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>0.11405512367562398</v>
+        <v>0.138006699647505</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -878,7 +878,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>0.30876938932487608</v>
+        <v>0.37361096108309999</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>0.11156646437504132</v>
+        <v>0.13499542189379998</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,7 +914,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>0.28490771566894213</v>
+        <v>0.34473833595941994</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -932,7 +932,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>0.12047497097242563</v>
+        <v>0.14577471487663501</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +950,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>8.9818042658876038E-2</v>
+        <v>0.10867983161724</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>9.0147727799516533E-2</v>
+        <v>0.10907875063741498</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,7 +986,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>0.12253296093618596</v>
+        <v>0.14826488273278501</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>9.1353485962710743E-2</v>
+        <v>0.11053771801487999</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>0.1314391724382025</v>
+        <v>0.15904139865022501</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>9.5351950473322331E-2</v>
+        <v>0.11537586007272001</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>0.15256328737633887</v>
+        <v>0.18460157772537</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>0.10074437096728514</v>
+        <v>0.12190068887041501</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>0.14580749039033059</v>
+        <v>0.17642706337229999</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>9.6969878361210751E-2</v>
+        <v>0.11733355281706501</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>0.11875088063047934</v>
+        <v>0.14368856556287998</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>0.11238448210266942</v>
+        <v>0.13598522334422999</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>0.1781957537062934</v>
+        <v>0.21561686198461499</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>0.1120967457513843</v>
+        <v>0.135637062359175</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>8.5777882554483473E-2</v>
+        <v>0.10379123789092499</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>0.11674383198276446</v>
+        <v>0.141260036699145</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>-2.3995409924801654E-2</v>
+        <v>-2.903444600901E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>7.735213007385125E-2</v>
+        <v>9.3596077389360002E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>-3.7158198406512404E-2</v>
+        <v>-4.4961420071880004E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>7.9270658281723139E-2</v>
+        <v>9.5917496520885007E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>-4.3545220122235537E-2</v>
+        <v>-5.2689716347904994E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>8.3042169714099182E-2</v>
+        <v>0.10048102535405999</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>-4.5499375397702484E-2</v>
+        <v>-5.5054244231219997E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>8.7735484556801663E-2</v>
+        <v>0.10615993631373</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>-4.5943072055206619E-2</v>
+        <v>-5.5591117186800001E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>9.0746420986537193E-2</v>
+        <v>0.10980316939371</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>-5.3618491702561985E-2</v>
+        <v>-6.4878374960100002E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>8.2042757776425626E-2</v>
+        <v>9.9271736909474995E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>2.7900298251681822E-2</v>
+        <v>3.3759360884535003E-2</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>8.5681398705446277E-2</v>
+        <v>0.10367449243358999</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>2.936513266066116E-2</v>
+        <v>3.5531810519399999E-2</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>0.12881611529321901</v>
+        <v>0.155867499504795</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>-6.2727913072016528E-2</v>
+        <v>-7.5900774817139999E-2</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>7.7745269292471081E-2</v>
+        <v>9.4071775843889996E-2</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" si="1">A67*$E$1</f>
-        <v>-4.3049422349603308E-2</v>
+        <v>-5.2089801043020002E-2</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E68">
         <f t="shared" si="1"/>
-        <v>7.7863871000070251E-2</v>
+        <v>9.421528391008499E-2</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="1"/>
-        <v>-3.9623016485107444E-2</v>
+        <v>-4.7943849946980005E-2</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="1"/>
-        <v>7.8417928257607433E-2</v>
+        <v>9.4885693191704992E-2</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="E71">
         <f t="shared" si="1"/>
-        <v>-3.9925372838913224E-2</v>
+        <v>-4.8309701135085002E-2</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
-        <v>7.7825646635938009E-2</v>
+        <v>9.4169032429484989E-2</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
-        <v>-3.9532870693028931E-2</v>
+        <v>-4.7834773538565002E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
-        <v>7.3381149534458678E-2</v>
+        <v>8.8791190936694991E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E75">
         <f t="shared" si="1"/>
-        <v>-3.0200433028140496E-2</v>
+        <v>-3.654252396405E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
-        <v>7.1040732158876033E-2</v>
+        <v>8.5959285912240002E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
-        <v>-1.9400857691305787E-2</v>
+        <v>-2.3475037806480002E-2</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
-        <v>7.0121771073061986E-2</v>
+        <v>8.4847342998405004E-2</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="E79">
         <f t="shared" si="1"/>
-        <v>-6.3585805018809921E-2</v>
+        <v>-7.6938824072759995E-2</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
-        <v>8.4493797115214889E-2</v>
+        <v>0.10223749450941</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
-        <v>-1.9256086995954547E-2</v>
+        <v>-2.3299865265105E-2</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E82">
         <f t="shared" si="1"/>
-        <v>8.3411124671566125E-2</v>
+        <v>0.10092746085259501</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E83">
         <f t="shared" si="1"/>
-        <v>7.9750210699599186E-2</v>
+        <v>9.6497754946514996E-2</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="E84">
         <f t="shared" si="1"/>
-        <v>8.3533540647979354E-2</v>
+        <v>0.101075584184055</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="E85">
         <f t="shared" si="1"/>
-        <v>8.0608698881132229E-2</v>
+        <v>9.7536525646169991E-2</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="E86">
         <f t="shared" si="1"/>
-        <v>8.3735067989987602E-2</v>
+        <v>0.10131943226788499</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="E87">
         <f t="shared" si="1"/>
-        <v>8.5645804308247933E-2</v>
+        <v>0.10363142321298</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="E88">
         <f t="shared" si="1"/>
-        <v>8.2071303535537196E-2</v>
+        <v>9.930627727800001E-2</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="E89">
         <f t="shared" si="1"/>
-        <v>8.7750970324834726E-2</v>
+        <v>0.10617867409305</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E90">
         <f t="shared" si="1"/>
-        <v>7.8652558879066109E-2</v>
+        <v>9.5169596243669996E-2</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="E91">
         <f t="shared" si="1"/>
-        <v>8.9968179466884304E-2</v>
+        <v>0.10886149715493</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E92">
         <f t="shared" si="1"/>
-        <v>7.4643958377880168E-2</v>
+        <v>9.0319189637234995E-2</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="E93">
         <f t="shared" si="1"/>
-        <v>7.9432450253752077E-2</v>
+        <v>9.6113264807040008E-2</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
-        <v>2.2258553625347111E-2</v>
+        <v>2.693284988667E-2</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="E95">
         <f t="shared" si="1"/>
-        <v>4.9834369497061985E-2</v>
+        <v>6.0299587091444999E-2</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="E96">
         <f t="shared" si="1"/>
-        <v>3.6747343665285127E-2</v>
+        <v>4.4464285834994996E-2</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="E97">
         <f t="shared" si="1"/>
-        <v>-3.5710189251830581E-2</v>
+        <v>-4.3209328994714996E-2</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E98">
         <f t="shared" si="1"/>
-        <v>8.061979048080993E-2</v>
+        <v>9.7549946481780003E-2</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="E99">
         <f t="shared" si="1"/>
-        <v>-7.9982276694917365E-3</v>
+        <v>-9.6778554800850004E-3</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="E100">
         <f t="shared" si="1"/>
-        <v>8.0190264607871903E-2</v>
+        <v>9.7030220175524998E-2</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
-        <v>-6.6359129653388426E-3</v>
+        <v>-8.0294546880599997E-3</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="E102">
         <f t="shared" si="1"/>
-        <v>7.8863846502086776E-2</v>
+        <v>9.5425254267524989E-2</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="E103">
         <f t="shared" si="1"/>
-        <v>-9.1633275240000003E-3</v>
+        <v>-1.108762630404E-2</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
-        <v>7.6979156657590919E-2</v>
+        <v>9.3144779555685009E-2</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="E105">
         <f t="shared" si="1"/>
-        <v>-1.4344444059743802E-2</v>
+        <v>-1.735677731229E-2</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
-        <v>7.32402829515124E-2</v>
+        <v>8.8620742371329997E-2</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
-        <v>-2.1373030690549587E-2</v>
+        <v>-2.5861367135565E-2</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="E108">
         <f t="shared" si="1"/>
-        <v>6.9809017365508264E-2</v>
+        <v>8.4468911012265002E-2</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="E109">
         <f t="shared" si="1"/>
-        <v>-3.95242620435E-2</v>
+        <v>-4.7824357072634993E-2</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="E110">
         <f t="shared" si="1"/>
-        <v>6.7681741657958677E-2</v>
+        <v>8.1894907406129994E-2</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="E111">
         <f t="shared" si="1"/>
-        <v>-4.256612917130579E-2</v>
+        <v>-5.150501629728E-2</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E114">
         <f t="shared" si="1"/>
-        <v>1.7334879815553723E-2</v>
+        <v>2.0975204576820002E-2</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="E115">
         <f t="shared" si="1"/>
-        <v>-7.195730013813223E-2</v>
+        <v>-8.7068333167139994E-2</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="E116">
         <f t="shared" si="1"/>
-        <v>2.4354637271652897E-2</v>
+        <v>2.9469111098700002E-2</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="E117">
         <f t="shared" si="1"/>
-        <v>-7.2063454424590903E-2</v>
+        <v>-8.7196779853754999E-2</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="E118">
         <f t="shared" si="1"/>
-        <v>2.4134920686285127E-2</v>
+        <v>2.9203254030404999E-2</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="E119">
         <f t="shared" si="1"/>
-        <v>-7.3846457659376044E-2</v>
+        <v>-8.9354213767845012E-2</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="E120">
         <f t="shared" si="1"/>
-        <v>2.8232989068818184E-2</v>
+        <v>3.4161916773269997E-2</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="E121">
         <f t="shared" si="1"/>
-        <v>-7.3465087951165284E-2</v>
+        <v>-8.8892756420909991E-2</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="E122">
         <f t="shared" si="1"/>
-        <v>2.9865528791628099E-2</v>
+        <v>3.6137289837869999E-2</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="E123">
         <f t="shared" si="1"/>
-        <v>-7.542316367423553E-2</v>
+        <v>-9.1262028045824992E-2</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="E124">
         <f t="shared" si="1"/>
-        <v>3.7448140009574381E-2</v>
+        <v>4.5312249411585001E-2</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="E125">
         <f t="shared" si="1"/>
-        <v>-8.4080753457409105E-2</v>
+        <v>-0.101737711683465</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="E126">
         <f t="shared" si="1"/>
-        <v>2.6230457103446281E-2</v>
+        <v>3.1738853095170001E-2</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="E127">
         <f t="shared" si="1"/>
-        <v>-0.15560308810155371</v>
+        <v>-0.18827973660288</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E130">
         <f t="shared" si="1"/>
-        <v>1.5361979899983471E-2</v>
+        <v>1.858799567898E-2</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E145" si="2">A131*$E$1</f>
-        <v>-0.10464333778476446</v>
+        <v>-0.12661843871956499</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="E132">
         <f t="shared" si="2"/>
-        <v>1.5915563436768598E-2</v>
+        <v>1.925783175849E-2</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="E133">
         <f t="shared" si="2"/>
-        <v>-9.94429702177686E-2</v>
+        <v>-0.12032599396349999</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="E134">
         <f t="shared" si="2"/>
-        <v>1.7036394903756198E-2</v>
+        <v>2.0614037833544999E-2</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="E135">
         <f t="shared" si="2"/>
-        <v>-0.10234206771202066</v>
+        <v>-0.12383390193154499</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="E136">
         <f t="shared" si="2"/>
-        <v>1.821197378800413E-2</v>
+        <v>2.2036488283484999E-2</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="E137">
         <f t="shared" si="2"/>
-        <v>-9.5649879988376041E-2</v>
+        <v>-0.115736354785935</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="E138">
         <f t="shared" si="2"/>
-        <v>1.8368930541322315E-2</v>
+        <v>2.2226405955E-2</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="E139">
         <f t="shared" si="2"/>
-        <v>-7.9979230180425617E-2</v>
+        <v>-9.6774868518314988E-2</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="E140">
         <f t="shared" si="2"/>
-        <v>1.6071515575388429E-2</v>
+        <v>1.9446533846219999E-2</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="E141">
         <f t="shared" si="2"/>
-        <v>-6.1732911637896695E-2</v>
+        <v>-7.4696823081855004E-2</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2971,5 +2971,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>